--- a/data/0. old data/0. raw/2016/companies/gilead.xlsx
+++ b/data/0. old data/0. raw/2016/companies/gilead.xlsx
@@ -1411,9 +1411,6 @@
     <t>Effingerstrasse 40</t>
   </si>
   <si>
-    <t>SAKK-SPOG-GOPS</t>
-  </si>
-  <si>
     <t>Effingerstrasse 33</t>
   </si>
   <si>
@@ -1574,6 +1571,9 @@
   </si>
   <si>
     <t>Freiburgstrasse 18 Inselspital</t>
+  </si>
+  <si>
+    <t>SPOG-GOPS</t>
   </si>
 </sst>
 </file>
@@ -2085,9 +2085,9 @@
   <dimension ref="A1:AMK253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
+      <selection pane="bottomLeft" activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -6476,7 +6476,7 @@
         <v>15</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E143" s="22"/>
       <c r="F143" s="15"/>
@@ -7528,7 +7528,7 @@
         <v>15</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E177" s="22"/>
       <c r="F177" s="15"/>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="39" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>22</v>
@@ -9136,7 +9136,7 @@
         <v>15</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="230" spans="1:13" ht="26">
       <c r="A230" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>158</v>
@@ -9165,7 +9165,7 @@
         <v>15</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="231" spans="1:13" ht="26">
       <c r="A231" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>19</v>
@@ -9194,7 +9194,7 @@
         <v>15</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>22</v>
@@ -9223,7 +9223,7 @@
         <v>15</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -9243,16 +9243,16 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="C233" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>158</v>
@@ -9281,7 +9281,7 @@
         <v>15</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>22</v>
@@ -9330,7 +9330,7 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>19</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>19</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>169</v>
@@ -9403,7 +9403,7 @@
         <v>15</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="239" spans="1:13" ht="26">
       <c r="A239" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>22</v>
@@ -9432,7 +9432,7 @@
         <v>15</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="240" spans="1:13" ht="26">
       <c r="A240" s="39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>22</v>
@@ -9461,7 +9461,7 @@
         <v>15</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="241" spans="1:13" ht="26">
       <c r="A241" s="39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>90</v>
@@ -9490,7 +9490,7 @@
         <v>15</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="11">
@@ -9510,7 +9510,7 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>19</v>
@@ -9519,7 +9519,7 @@
         <v>15</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -9539,7 +9539,7 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>158</v>
@@ -9548,7 +9548,7 @@
         <v>15</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="11">
@@ -9570,7 +9570,7 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>19</v>
@@ -9579,7 +9579,7 @@
         <v>15</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="11">
@@ -9603,7 +9603,7 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>158</v>
@@ -9612,7 +9612,7 @@
         <v>15</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="11">
@@ -9640,7 +9640,7 @@
     </row>
     <row r="246" spans="1:13" ht="26">
       <c r="A246" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>158</v>
@@ -9671,7 +9671,7 @@
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>19</v>
@@ -9680,7 +9680,7 @@
         <v>15</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -9706,7 +9706,7 @@
     </row>
     <row r="248" spans="1:13" ht="26">
       <c r="A248" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>19</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="249" spans="1:13" ht="26">
       <c r="A249" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>19</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>27</v>
@@ -9773,7 +9773,7 @@
         <v>15</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="11">
@@ -9793,16 +9793,16 @@
     </row>
     <row r="251" spans="1:13" ht="26">
       <c r="A251" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B251" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="C251" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>27</v>
@@ -9831,7 +9831,7 @@
         <v>15</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="11">
@@ -9855,7 +9855,7 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>158</v>
@@ -9864,7 +9864,7 @@
         <v>15</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E253" s="42"/>
       <c r="F253" s="42"/>
@@ -9913,30 +9913,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2" s="2">
         <v>2016</v>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B3" s="2">
         <v>2016</v>
@@ -9982,7 +9982,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B4" s="2">
         <v>2016</v>
